--- a/도서정보/샘플-도서목록(2021-04-28).xlsx
+++ b/도서정보/샘플-도서목록(2021-04-28).xlsx
@@ -1188,7 +1188,7 @@
         <xdr:cNvPr id="1027" name="Picture 3" descr="\\googleads.g.doubleclick.net\pagead\viewthroughconversion\921362370\?value=0&amp;guid=ON&amp;script=0">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1254,7 +1254,7 @@
         <xdr:cNvPr id="2" name="Picture 3" descr="\\googleads.g.doubleclick.net\pagead\viewthroughconversion\921362370\?value=0&amp;guid=ON&amp;script=0">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1566,7 +1566,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3626,5 +3626,6 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>